--- a/spectral_line_list.xlsx
+++ b/spectral_line_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aadzu\PycharmProjects\echele\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_python\Echele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57212237-ADA6-4EE9-BEFA-2CA719C9EF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0462D7-BBEC-444D-9F5E-A619A8869BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="56">
   <si>
     <t>Ar</t>
   </si>
@@ -73,6 +73,126 @@
   </si>
   <si>
     <t>lambda</t>
+  </si>
+  <si>
+    <t>Au</t>
+  </si>
+  <si>
+    <t>Ag</t>
+  </si>
+  <si>
+    <t>Cu</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
+    <t>Zn</t>
+  </si>
+  <si>
+    <t>As</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Sb</t>
+  </si>
+  <si>
+    <t>Ge</t>
+  </si>
+  <si>
+    <t>Be</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Co</t>
+  </si>
+  <si>
+    <t>Cr</t>
+  </si>
+  <si>
+    <t>Ni</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Mn</t>
+  </si>
+  <si>
+    <t>Ti</t>
+  </si>
+  <si>
+    <t>Pb</t>
+  </si>
+  <si>
+    <t>Sn</t>
+  </si>
+  <si>
+    <t>Bi</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Ga</t>
+  </si>
+  <si>
+    <t>Tl</t>
+  </si>
+  <si>
+    <t>Pt</t>
+  </si>
+  <si>
+    <t>Pd</t>
+  </si>
+  <si>
+    <t>Mg</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>Sc</t>
+  </si>
+  <si>
+    <t>Zr</t>
+  </si>
+  <si>
+    <t>Nb</t>
+  </si>
+  <si>
+    <t>Te</t>
+  </si>
+  <si>
+    <t>La</t>
+  </si>
+  <si>
+    <t>Hf</t>
+  </si>
+  <si>
+    <t>Ce</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Yb</t>
+  </si>
+  <si>
+    <t>Fe</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Ta</t>
   </si>
 </sst>
 </file>
@@ -106,7 +226,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -114,13 +234,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -401,15 +531,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -417,7 +547,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -425,7 +555,7 @@
         <v>451.07330000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +563,7 @@
         <v>459.61</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,7 +571,7 @@
         <v>462.84410000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +579,7 @@
         <v>487.62610000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +587,7 @@
         <v>488.79469999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +595,7 @@
         <v>522.12710000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +603,7 @@
         <v>525.27599999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,7 +611,7 @@
         <v>545.16520000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +619,7 @@
         <v>550.61130000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +627,7 @@
         <v>583.42700000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +635,7 @@
         <v>589.98</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +643,7 @@
         <v>591.20899999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,7 +651,7 @@
         <v>592.88130000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +659,7 @@
         <v>594.26700000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +667,7 @@
         <v>610.56399999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +675,7 @@
         <v>617.01800000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +683,7 @@
         <v>617.30999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +691,7 @@
         <v>662.24699999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,7 +699,7 @@
         <v>638.47199999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -577,7 +707,7 @@
         <v>485.48599999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -585,7 +715,7 @@
         <v>488.36599999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -593,7 +723,7 @@
         <v>490.012</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
@@ -601,7 +731,7 @@
         <v>508.74200000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -609,7 +739,7 @@
         <v>511.911</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -617,7 +747,7 @@
         <v>566.29300000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
@@ -625,7 +755,7 @@
         <v>486.12900000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
@@ -633,7 +763,7 @@
         <v>656.28520000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -641,7 +771,7 @@
         <v>460.733</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -649,7 +779,7 @@
         <v>548.08600000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -657,7 +787,7 @@
         <v>640.846</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
@@ -665,7 +795,7 @@
         <v>566.34799999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -673,7 +803,7 @@
         <v>588.995</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -681,7 +811,7 @@
         <v>585.96299999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -689,7 +819,7 @@
         <v>610.36500000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -697,7 +827,7 @@
         <v>641.71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -705,7 +835,7 @@
         <v>670.77599999999995</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -713,7 +843,7 @@
         <v>702.71799999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -721,7 +851,7 @@
         <v>638.47199999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
@@ -729,7 +859,7 @@
         <v>766.49</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
@@ -737,7 +867,7 @@
         <v>769.89599999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -745,7 +875,7 @@
         <v>780.02599999999995</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
@@ -753,7 +883,7 @@
         <v>662.80100000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>9</v>
       </c>
@@ -761,7 +891,7 @@
         <v>894.34699999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
@@ -769,7 +899,7 @@
         <v>852.11300000000006</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>10</v>
       </c>
@@ -777,7 +907,7 @@
         <v>455.4033</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>10</v>
       </c>
@@ -785,7 +915,7 @@
         <v>493.40769999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>10</v>
       </c>
@@ -793,7 +923,7 @@
         <v>585.36749999999995</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>11</v>
       </c>
@@ -801,7 +931,7 @@
         <v>567.71050000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>11</v>
       </c>
@@ -809,7 +939,7 @@
         <v>542.52530000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>11</v>
       </c>
@@ -817,7 +947,7 @@
         <v>588.89390000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>11</v>
       </c>
@@ -825,7 +955,7 @@
         <v>794.45550000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>12</v>
       </c>
@@ -833,7 +963,7 @@
         <v>445.47800000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>12</v>
       </c>
@@ -841,7 +971,7 @@
         <v>643.90700000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
@@ -849,7 +979,7 @@
         <v>646.25699999999995</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>12</v>
       </c>
@@ -857,12 +987,1636 @@
         <v>811.89800000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B57">
         <v>508.5822</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="2">
+        <v>267.59500000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59">
+        <v>274.82530000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60">
+        <v>312.27839999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61">
+        <v>583.73699999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62">
+        <v>328.06799999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63">
+        <v>338.28899999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64">
+        <v>546.54999999999995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65">
+        <v>547.15499999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66">
+        <v>261.8365</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67">
+        <v>282.43700000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68">
+        <v>296.11649999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69">
+        <v>301.0838</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70">
+        <v>303.61009999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71">
+        <v>310.8605</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72">
+        <v>324.75319999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73">
+        <v>327.3954</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74">
+        <v>329.05410000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75">
+        <v>214.441</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76">
+        <v>228.8022</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77">
+        <v>326.10550000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78">
+        <v>340.36520000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79">
+        <v>346.62</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80">
+        <v>308.5616</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81">
+        <v>317.03429999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82">
+        <v>319.39780000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83">
+        <v>320.88380000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84">
+        <v>471.7919</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85">
+        <v>328.2328</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86">
+        <v>334.50150000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87">
+        <v>334.55700000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88">
+        <v>334.59359999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89">
+        <v>472.21530000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90">
+        <v>228.81200000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91">
+        <v>278.02199999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92">
+        <v>286.04399999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>22</v>
+      </c>
+      <c r="B93">
+        <v>208.88910000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>22</v>
+      </c>
+      <c r="B94">
+        <v>208.9564</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>22</v>
+      </c>
+      <c r="B95">
+        <v>249.6772</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>22</v>
+      </c>
+      <c r="B96">
+        <v>249.7723</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>23</v>
+      </c>
+      <c r="B97">
+        <v>206.833</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>23</v>
+      </c>
+      <c r="B98">
+        <v>217.58099999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>23</v>
+      </c>
+      <c r="B99">
+        <v>259.8073</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>23</v>
+      </c>
+      <c r="B100">
+        <v>287.79149999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>24</v>
+      </c>
+      <c r="B101">
+        <v>265.11720000000003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>24</v>
+      </c>
+      <c r="B102">
+        <v>303.9067</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>25</v>
+      </c>
+      <c r="B103">
+        <v>313.04219000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>25</v>
+      </c>
+      <c r="B104">
+        <v>313.10667000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>26</v>
+      </c>
+      <c r="B105">
+        <v>303.93459999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>26</v>
+      </c>
+      <c r="B106">
+        <v>325.60789999999997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107">
+        <v>233.52672000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108">
+        <v>307.15841</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109">
+        <v>455.4033</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110">
+        <v>460.733</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111">
+        <v>474.19220000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112">
+        <v>274.13099999999997</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113">
+        <v>323.26440000000002</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>27</v>
+      </c>
+      <c r="B114">
+        <v>304.39999999999998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>27</v>
+      </c>
+      <c r="B115">
+        <v>340.51170000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>27</v>
+      </c>
+      <c r="B116">
+        <v>344.94409999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>27</v>
+      </c>
+      <c r="B117">
+        <v>345.35109999999997</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>27</v>
+      </c>
+      <c r="B118">
+        <v>345.52350000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>27</v>
+      </c>
+      <c r="B119">
+        <v>346.28030000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>28</v>
+      </c>
+      <c r="B120">
+        <v>267.71600000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>28</v>
+      </c>
+      <c r="B121">
+        <v>275.28570000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>28</v>
+      </c>
+      <c r="B122">
+        <v>283.56290000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>28</v>
+      </c>
+      <c r="B123">
+        <v>284.32490000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>28</v>
+      </c>
+      <c r="B124">
+        <v>297.11020000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>28</v>
+      </c>
+      <c r="B125">
+        <v>300.50580000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>28</v>
+      </c>
+      <c r="B126">
+        <v>301.47559999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>28</v>
+      </c>
+      <c r="B127">
+        <v>301.4923</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>28</v>
+      </c>
+      <c r="B128">
+        <v>301.5197</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>29</v>
+      </c>
+      <c r="B129">
+        <v>231.60380000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>29</v>
+      </c>
+      <c r="B130">
+        <v>286.5498</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>29</v>
+      </c>
+      <c r="B131">
+        <v>305.08179999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>29</v>
+      </c>
+      <c r="B132">
+        <v>309.91149999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>29</v>
+      </c>
+      <c r="B133">
+        <v>310.15550000000002</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>29</v>
+      </c>
+      <c r="B134">
+        <v>338.05709999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>29</v>
+      </c>
+      <c r="B135">
+        <v>341.39370000000002</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>29</v>
+      </c>
+      <c r="B136">
+        <v>341.47629999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>30</v>
+      </c>
+      <c r="B137">
+        <v>295.20800000000003</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>30</v>
+      </c>
+      <c r="B138">
+        <v>310.22890000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>30</v>
+      </c>
+      <c r="B139">
+        <v>318.34089999999998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>30</v>
+      </c>
+      <c r="B140">
+        <v>318.39830000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141">
+        <v>265.654</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>6</v>
+      </c>
+      <c r="B142">
+        <v>268.1422</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>6</v>
+      </c>
+      <c r="B143">
+        <v>289.64420000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>6</v>
+      </c>
+      <c r="B144">
+        <v>400.87506000000002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>6</v>
+      </c>
+      <c r="B145">
+        <v>429.4606</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>31</v>
+      </c>
+      <c r="B146">
+        <v>257.6105</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>31</v>
+      </c>
+      <c r="B147">
+        <v>263.81729999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>31</v>
+      </c>
+      <c r="B148">
+        <v>279.48169999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>31</v>
+      </c>
+      <c r="B149">
+        <v>279.82690000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>31</v>
+      </c>
+      <c r="B150">
+        <v>293.30549999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>31</v>
+      </c>
+      <c r="B151">
+        <v>294.9205</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>31</v>
+      </c>
+      <c r="B152">
+        <v>304.4572</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>31</v>
+      </c>
+      <c r="B153">
+        <v>304.5804</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>31</v>
+      </c>
+      <c r="B154">
+        <v>306.21260000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>31</v>
+      </c>
+      <c r="B155">
+        <v>321.2885</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>31</v>
+      </c>
+      <c r="B156">
+        <v>403.07530000000003</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>31</v>
+      </c>
+      <c r="B157">
+        <v>403.44830000000002</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>32</v>
+      </c>
+      <c r="B158">
+        <v>284.19420000000002</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>32</v>
+      </c>
+      <c r="B159">
+        <v>308.80369999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>32</v>
+      </c>
+      <c r="B160">
+        <v>334.94080000000002</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>33</v>
+      </c>
+      <c r="B161">
+        <v>239.3792</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>33</v>
+      </c>
+      <c r="B162">
+        <v>261.41750000000002</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>33</v>
+      </c>
+      <c r="B163">
+        <v>265.70940000000002</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>33</v>
+      </c>
+      <c r="B164">
+        <v>266.31540000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>33</v>
+      </c>
+      <c r="B165">
+        <v>280.1995</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>33</v>
+      </c>
+      <c r="B166">
+        <v>283.30529999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>33</v>
+      </c>
+      <c r="B167">
+        <v>401.96319999999997</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>33</v>
+      </c>
+      <c r="B168">
+        <v>405.78070000000002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>34</v>
+      </c>
+      <c r="B169">
+        <v>283.99900000000002</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>34</v>
+      </c>
+      <c r="B170">
+        <v>317.50349999999997</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>35</v>
+      </c>
+      <c r="B171">
+        <v>289.798</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>35</v>
+      </c>
+      <c r="B172">
+        <v>306.77199999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>36</v>
+      </c>
+      <c r="B173">
+        <v>213.6182</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>36</v>
+      </c>
+      <c r="B174">
+        <v>214.9145</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>36</v>
+      </c>
+      <c r="B175">
+        <v>253.39760000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>36</v>
+      </c>
+      <c r="B176">
+        <v>255.3262</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>37</v>
+      </c>
+      <c r="B177">
+        <v>294.36360000000002</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>37</v>
+      </c>
+      <c r="B178">
+        <v>294.41730000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>38</v>
+      </c>
+      <c r="B179">
+        <v>276.78699999999998</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>39</v>
+      </c>
+      <c r="B180">
+        <v>265.94499999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>39</v>
+      </c>
+      <c r="B181">
+        <v>299.7962</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>39</v>
+      </c>
+      <c r="B182">
+        <v>306.47109999999998</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>40</v>
+      </c>
+      <c r="B183">
+        <v>306.53100000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>40</v>
+      </c>
+      <c r="B184">
+        <v>324.27</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>40</v>
+      </c>
+      <c r="B185">
+        <v>340.45800000000003</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>40</v>
+      </c>
+      <c r="B186">
+        <v>342.12400000000002</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>41</v>
+      </c>
+      <c r="B187">
+        <v>202.58240000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>41</v>
+      </c>
+      <c r="B188">
+        <v>277.66899999999998</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>41</v>
+      </c>
+      <c r="B189">
+        <v>279.07760000000002</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>41</v>
+      </c>
+      <c r="B190">
+        <v>279.55279999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>41</v>
+      </c>
+      <c r="B191">
+        <v>280.2704</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>42</v>
+      </c>
+      <c r="B192">
+        <v>256.79840000000002</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>42</v>
+      </c>
+      <c r="B193">
+        <v>265.2484</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>42</v>
+      </c>
+      <c r="B194">
+        <v>308.21528999999998</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>42</v>
+      </c>
+      <c r="B195">
+        <v>309.27098999999998</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>42</v>
+      </c>
+      <c r="B196">
+        <v>394.40057999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>12</v>
+      </c>
+      <c r="B197">
+        <v>315.88690000000003</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>12</v>
+      </c>
+      <c r="B198">
+        <v>317.9332</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>12</v>
+      </c>
+      <c r="B199">
+        <v>318.1275</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>12</v>
+      </c>
+      <c r="B200">
+        <v>393.36630000000002</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>12</v>
+      </c>
+      <c r="B201">
+        <v>396.84690000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>43</v>
+      </c>
+      <c r="B202">
+        <v>255.23500000000001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>43</v>
+      </c>
+      <c r="B203">
+        <v>326.98970000000003</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>43</v>
+      </c>
+      <c r="B204">
+        <v>335.37240000000003</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>43</v>
+      </c>
+      <c r="B205">
+        <v>424.68200000000002</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>2</v>
+      </c>
+      <c r="B206">
+        <v>324.22719999999998</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>2</v>
+      </c>
+      <c r="B207">
+        <v>332.7876</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>44</v>
+      </c>
+      <c r="B208">
+        <v>327.30500000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>44</v>
+      </c>
+      <c r="B209">
+        <v>339.19799999999998</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>45</v>
+      </c>
+      <c r="B210">
+        <v>264.62599999999998</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>45</v>
+      </c>
+      <c r="B211">
+        <v>295.08800000000002</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>45</v>
+      </c>
+      <c r="B212">
+        <v>316.33999999999997</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>45</v>
+      </c>
+      <c r="B213">
+        <v>319.49799999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>46</v>
+      </c>
+      <c r="B214">
+        <v>214.2801</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>46</v>
+      </c>
+      <c r="B215">
+        <v>238.578</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>47</v>
+      </c>
+      <c r="B216">
+        <v>324.51299999999998</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>47</v>
+      </c>
+      <c r="B217">
+        <v>433.37400000000002</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>48</v>
+      </c>
+      <c r="B218">
+        <v>277.33600000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>49</v>
+      </c>
+      <c r="B219">
+        <v>424.86799999999999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>49</v>
+      </c>
+      <c r="B220">
+        <v>429.66699999999997</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>50</v>
+      </c>
+      <c r="B221">
+        <v>302.221</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>50</v>
+      </c>
+      <c r="B222">
+        <v>329.13299999999998</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>50</v>
+      </c>
+      <c r="B223">
+        <v>351.46109999999999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>50</v>
+      </c>
+      <c r="B224">
+        <v>393.2022</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>50</v>
+      </c>
+      <c r="B225">
+        <v>404.27499999999998</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>50</v>
+      </c>
+      <c r="B226">
+        <v>424.16649999999998</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>51</v>
+      </c>
+      <c r="B227">
+        <v>328.93700000000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>52</v>
+      </c>
+      <c r="B228">
+        <v>228.3656</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>52</v>
+      </c>
+      <c r="B229">
+        <v>246.8879</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>52</v>
+      </c>
+      <c r="B230">
+        <v>259.83690000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>52</v>
+      </c>
+      <c r="B231">
+        <v>262.1669</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>52</v>
+      </c>
+      <c r="B232">
+        <v>265.61439999999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>52</v>
+      </c>
+      <c r="B233">
+        <v>269.00689999999997</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>52</v>
+      </c>
+      <c r="B234">
+        <v>271.44130000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>52</v>
+      </c>
+      <c r="B235">
+        <v>284.68299999999999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>52</v>
+      </c>
+      <c r="B236">
+        <v>301.6182</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>52</v>
+      </c>
+      <c r="B237">
+        <v>309.8963</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>52</v>
+      </c>
+      <c r="B238">
+        <v>322.95819999999998</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>52</v>
+      </c>
+      <c r="B239">
+        <v>335.52269999999999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>52</v>
+      </c>
+      <c r="B240">
+        <v>342.71190000000001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>52</v>
+      </c>
+      <c r="B241">
+        <v>432.5761</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>52</v>
+      </c>
+      <c r="B242">
+        <v>489.14920000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>52</v>
+      </c>
+      <c r="B243">
+        <v>526.95370000000003</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>52</v>
+      </c>
+      <c r="B244">
+        <v>532.80380000000002</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>52</v>
+      </c>
+      <c r="B245">
+        <v>544.68709999999999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>53</v>
+      </c>
+      <c r="B246">
+        <v>197.69579999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>53</v>
+      </c>
+      <c r="B247">
+        <v>205.81360000000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>53</v>
+      </c>
+      <c r="B248">
+        <v>212.41229999999999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>53</v>
+      </c>
+      <c r="B249">
+        <v>253.2381</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>53</v>
+      </c>
+      <c r="B250">
+        <v>390.5523</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>54</v>
+      </c>
+      <c r="B251">
+        <v>247.8561</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>4</v>
+      </c>
+      <c r="B252">
+        <v>330.2978</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>4</v>
+      </c>
+      <c r="B253">
+        <v>589.5924</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>4</v>
+      </c>
+      <c r="B254">
+        <v>818.32550000000003</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>7</v>
+      </c>
+      <c r="B255">
+        <v>769.89599999999996</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>55</v>
+      </c>
+      <c r="B256">
+        <v>263.55799999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>55</v>
+      </c>
+      <c r="B257">
+        <v>264.62200000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>55</v>
+      </c>
+      <c r="B258">
+        <v>265.327</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>55</v>
+      </c>
+      <c r="B259">
+        <v>271.46699999999998</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>55</v>
+      </c>
+      <c r="B260">
+        <v>296.33199999999999</v>
       </c>
     </row>
   </sheetData>
